--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N2">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q2">
-        <v>173.9624831482884</v>
+        <v>267.5371042781262</v>
       </c>
       <c r="R2">
-        <v>1565.662348334596</v>
+        <v>2407.833938503136</v>
       </c>
       <c r="S2">
-        <v>0.02078235562114318</v>
+        <v>0.03943957009780976</v>
       </c>
       <c r="T2">
-        <v>0.02078235562114318</v>
+        <v>0.03943957009780975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q3">
-        <v>2.060698495874222</v>
+        <v>2.704470164211555</v>
       </c>
       <c r="R3">
-        <v>18.546286462868</v>
+        <v>24.34023147790399</v>
       </c>
       <c r="S3">
-        <v>0.0002461804878509766</v>
+        <v>0.0003986854119044805</v>
       </c>
       <c r="T3">
-        <v>0.0002461804878509766</v>
+        <v>0.0003986854119044804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N4">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q4">
-        <v>49.80204693694755</v>
+        <v>65.36069324320889</v>
       </c>
       <c r="R4">
-        <v>448.218422432528</v>
+        <v>588.2462391888799</v>
       </c>
       <c r="S4">
-        <v>0.005949580802558758</v>
+        <v>0.009635290214276787</v>
       </c>
       <c r="T4">
-        <v>0.00594958080255876</v>
+        <v>0.009635290214276783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N5">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O5">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P5">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q5">
-        <v>6.129545349836</v>
+        <v>4.921000942508444</v>
       </c>
       <c r="R5">
-        <v>55.165908148524</v>
+        <v>44.28900848257599</v>
       </c>
       <c r="S5">
-        <v>0.0007322635832211594</v>
+        <v>0.0007254401670644001</v>
       </c>
       <c r="T5">
-        <v>0.0007322635832211594</v>
+        <v>0.0007254401670643998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N6">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O6">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P6">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q6">
-        <v>26.817998698904</v>
+        <v>39.64330666781333</v>
       </c>
       <c r="R6">
-        <v>241.361988290136</v>
+        <v>356.78976001032</v>
       </c>
       <c r="S6">
-        <v>0.003203801049062351</v>
+        <v>0.005844105162358318</v>
       </c>
       <c r="T6">
-        <v>0.003203801049062351</v>
+        <v>0.005844105162358316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N7">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q7">
-        <v>66.73679831630177</v>
+        <v>200.5779252255626</v>
       </c>
       <c r="R7">
-        <v>600.631184846716</v>
+        <v>1805.201327030064</v>
       </c>
       <c r="S7">
-        <v>0.007972683825417898</v>
+        <v>0.02956863558552615</v>
       </c>
       <c r="T7">
-        <v>0.0079726838254179</v>
+        <v>0.02956863558552614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N8">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q8">
-        <v>512.2637283584896</v>
+        <v>600.2805744090393</v>
       </c>
       <c r="R8">
-        <v>4610.373555226408</v>
+        <v>5402.525169681355</v>
       </c>
       <c r="S8">
-        <v>0.0611973730306204</v>
+        <v>0.08849167989852713</v>
       </c>
       <c r="T8">
-        <v>0.0611973730306204</v>
+        <v>0.08849167989852712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q9">
         <v>6.068096266592334</v>
@@ -1013,10 +1013,10 @@
         <v>54.612866399331</v>
       </c>
       <c r="S9">
-        <v>0.0007249225940753875</v>
+        <v>0.0008945417448255347</v>
       </c>
       <c r="T9">
-        <v>0.0007249225940753875</v>
+        <v>0.0008945417448255345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N10">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q10">
-        <v>146.6510582172973</v>
+        <v>146.6516376846884</v>
       </c>
       <c r="R10">
-        <v>1319.859523955676</v>
+        <v>1319.864739162195</v>
       </c>
       <c r="S10">
-        <v>0.0175196076126994</v>
+        <v>0.02161897341316464</v>
       </c>
       <c r="T10">
-        <v>0.0175196076126994</v>
+        <v>0.02161897341316463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N11">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O11">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P11">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q11">
-        <v>18.049545495237</v>
+        <v>11.04138912023767</v>
       </c>
       <c r="R11">
-        <v>162.445909457133</v>
+        <v>99.37250208213901</v>
       </c>
       <c r="S11">
-        <v>0.002156281437775677</v>
+        <v>0.001627690638873418</v>
       </c>
       <c r="T11">
-        <v>0.002156281437775677</v>
+        <v>0.001627690638873418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N12">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O12">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P12">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q12">
-        <v>78.97040644621801</v>
+        <v>88.948809408095</v>
       </c>
       <c r="R12">
-        <v>710.7336580159621</v>
+        <v>800.5392846728552</v>
       </c>
       <c r="S12">
-        <v>0.009434166727273851</v>
+        <v>0.01311258418989364</v>
       </c>
       <c r="T12">
-        <v>0.00943416672727385</v>
+        <v>0.01311258418989364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N13">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q13">
-        <v>196.5184705662997</v>
+        <v>450.042368863369</v>
       </c>
       <c r="R13">
-        <v>1768.666235096697</v>
+        <v>4050.381319770321</v>
       </c>
       <c r="S13">
-        <v>0.02347699726699482</v>
+        <v>0.06634398470321783</v>
       </c>
       <c r="T13">
-        <v>0.02347699726699482</v>
+        <v>0.06634398470321781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N14">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q14">
-        <v>234.9454203205275</v>
+        <v>451.5670860856711</v>
       </c>
       <c r="R14">
-        <v>2114.508782884747</v>
+        <v>4064.10377477104</v>
       </c>
       <c r="S14">
-        <v>0.02806765682056891</v>
+        <v>0.06656875424286944</v>
       </c>
       <c r="T14">
-        <v>0.02806765682056891</v>
+        <v>0.06656875424286944</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q15">
-        <v>2.783080958061222</v>
+        <v>4.564786311617778</v>
       </c>
       <c r="R15">
-        <v>25.047728622551</v>
+        <v>41.08307680455999</v>
       </c>
       <c r="S15">
-        <v>0.0003324796079368292</v>
+        <v>0.0006729280045261045</v>
       </c>
       <c r="T15">
-        <v>0.0003324796079368292</v>
+        <v>0.0006729280045261044</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N16">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q16">
-        <v>67.26026576919956</v>
+        <v>110.3201661392444</v>
       </c>
       <c r="R16">
-        <v>605.3423919227961</v>
+        <v>992.8814952531999</v>
       </c>
       <c r="S16">
-        <v>0.008035219646736008</v>
+        <v>0.01626308970260648</v>
       </c>
       <c r="T16">
-        <v>0.008035219646736008</v>
+        <v>0.01626308970260647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N17">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O17">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P17">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q17">
-        <v>8.278271168177001</v>
+        <v>8.305995769182221</v>
       </c>
       <c r="R17">
-        <v>74.50444051359301</v>
+        <v>74.75396192263999</v>
       </c>
       <c r="S17">
-        <v>0.0009889602185010173</v>
+        <v>0.001224446617431513</v>
       </c>
       <c r="T17">
-        <v>0.0009889602185010173</v>
+        <v>0.001224446617431513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N18">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O18">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P18">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q18">
-        <v>36.21910806537801</v>
+        <v>66.91263450386667</v>
       </c>
       <c r="R18">
-        <v>325.971972588402</v>
+        <v>602.2137105347999</v>
       </c>
       <c r="S18">
-        <v>0.004326900665436419</v>
+        <v>0.009864073045363143</v>
       </c>
       <c r="T18">
-        <v>0.004326900665436418</v>
+        <v>0.009864073045363141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N19">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q19">
-        <v>90.13153208387079</v>
+        <v>338.5488882807733</v>
       </c>
       <c r="R19">
-        <v>811.1837887548372</v>
+        <v>3046.93999452696</v>
       </c>
       <c r="S19">
-        <v>0.01076752595471278</v>
+        <v>0.04990792827377103</v>
       </c>
       <c r="T19">
-        <v>0.01076752595471278</v>
+        <v>0.04990792827377102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N20">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q20">
-        <v>2576.270383145421</v>
+        <v>386.1268856197133</v>
       </c>
       <c r="R20">
-        <v>23186.43344830879</v>
+        <v>3475.14197057742</v>
       </c>
       <c r="S20">
-        <v>0.307773068708773</v>
+        <v>0.05692174329664654</v>
       </c>
       <c r="T20">
-        <v>0.307773068708773</v>
+        <v>0.05692174329664653</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q21">
-        <v>30.51759441136322</v>
+        <v>3.903266593903333</v>
       </c>
       <c r="R21">
-        <v>274.658349702269</v>
+        <v>35.12939934513</v>
       </c>
       <c r="S21">
-        <v>0.003645771710548282</v>
+        <v>0.0005754086217538388</v>
       </c>
       <c r="T21">
-        <v>0.003645771710548282</v>
+        <v>0.0005754086217538386</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N22">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q22">
-        <v>737.5356813819915</v>
+        <v>94.33278793998332</v>
       </c>
       <c r="R22">
-        <v>6637.821132437924</v>
+        <v>848.99509145985</v>
       </c>
       <c r="S22">
-        <v>0.08810939310803637</v>
+        <v>0.01390627521561681</v>
       </c>
       <c r="T22">
-        <v>0.08810939310803638</v>
+        <v>0.0139062752156168</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N23">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O23">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P23">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q23">
-        <v>90.77455012796301</v>
+        <v>7.102307446996666</v>
       </c>
       <c r="R23">
-        <v>816.970951151667</v>
+        <v>63.92076702296999</v>
       </c>
       <c r="S23">
-        <v>0.0108443438376338</v>
+        <v>0.001047002258501021</v>
       </c>
       <c r="T23">
-        <v>0.0108443438376338</v>
+        <v>0.001047002258501021</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N24">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O24">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P24">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q24">
-        <v>397.156987718582</v>
+        <v>57.21578911685</v>
       </c>
       <c r="R24">
-        <v>3574.412889467238</v>
+        <v>514.94210205165</v>
       </c>
       <c r="S24">
-        <v>0.047446194184029</v>
+        <v>0.008434591275345588</v>
       </c>
       <c r="T24">
-        <v>0.047446194184029</v>
+        <v>0.008434591275345587</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N25">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q25">
-        <v>988.3282524869448</v>
+        <v>289.4870593758699</v>
       </c>
       <c r="R25">
-        <v>8894.954272382503</v>
+        <v>2605.38353438283</v>
       </c>
       <c r="S25">
-        <v>0.1180702231992069</v>
+        <v>0.04267537096011289</v>
       </c>
       <c r="T25">
-        <v>0.1180702231992069</v>
+        <v>0.04267537096011288</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N26">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q26">
-        <v>651.8940113737137</v>
+        <v>705.3803111874565</v>
       </c>
       <c r="R26">
-        <v>5867.046102363423</v>
+        <v>6348.422800687109</v>
       </c>
       <c r="S26">
-        <v>0.07787824665685895</v>
+        <v>0.103985188535836</v>
       </c>
       <c r="T26">
-        <v>0.07787824665685895</v>
+        <v>0.1039851885358359</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.995073</v>
       </c>
       <c r="O27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q27">
-        <v>7.722107573976889</v>
+        <v>7.130524983351665</v>
       </c>
       <c r="R27">
-        <v>69.49896816579199</v>
+        <v>64.17472485016499</v>
       </c>
       <c r="S27">
-        <v>0.0009225183662750554</v>
+        <v>0.001051162008626385</v>
       </c>
       <c r="T27">
-        <v>0.0009225183662750554</v>
+        <v>0.001051162008626385</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N28">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q28">
-        <v>186.6244696258702</v>
+        <v>172.3280449779916</v>
       </c>
       <c r="R28">
-        <v>1679.620226632832</v>
+        <v>1550.952404801925</v>
       </c>
       <c r="S28">
-        <v>0.02229501456395041</v>
+        <v>0.02540411741416796</v>
       </c>
       <c r="T28">
-        <v>0.02229501456395041</v>
+        <v>0.02540411741416795</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N29">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O29">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P29">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q29">
-        <v>22.969400261984</v>
+        <v>12.97456360509833</v>
       </c>
       <c r="R29">
-        <v>206.724602357856</v>
+        <v>116.771072445885</v>
       </c>
       <c r="S29">
-        <v>0.002744029839135045</v>
+        <v>0.00191267380340561</v>
       </c>
       <c r="T29">
-        <v>0.002744029839135045</v>
+        <v>0.00191267380340561</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N30">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O30">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P30">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q30">
-        <v>100.495764560576</v>
+        <v>104.522354270425</v>
       </c>
       <c r="R30">
-        <v>904.461881045184</v>
+        <v>940.7011884338249</v>
       </c>
       <c r="S30">
-        <v>0.01200568467246046</v>
+        <v>0.01540839252618603</v>
       </c>
       <c r="T30">
-        <v>0.01200568467246046</v>
+        <v>0.01540839252618602</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N31">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q31">
-        <v>250.0844916289671</v>
+        <v>528.8377464303348</v>
       </c>
       <c r="R31">
-        <v>2250.760424660704</v>
+        <v>4759.539717873014</v>
       </c>
       <c r="S31">
-        <v>0.02987623967137615</v>
+        <v>0.0779597784276841</v>
       </c>
       <c r="T31">
-        <v>0.02987623967137615</v>
+        <v>0.07795977842768409</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N32">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q32">
-        <v>324.2177429381071</v>
+        <v>714.113394361955</v>
       </c>
       <c r="R32">
-        <v>2917.959686442964</v>
+        <v>6427.020549257594</v>
       </c>
       <c r="S32">
-        <v>0.03873253767411757</v>
+        <v>0.1052725951815795</v>
       </c>
       <c r="T32">
-        <v>0.03873253767411757</v>
+        <v>0.1052725951815794</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.995073</v>
       </c>
       <c r="O33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q33">
-        <v>3.840569547623555</v>
+        <v>7.218805683521222</v>
       </c>
       <c r="R33">
-        <v>34.565125928612</v>
+        <v>64.969251151691</v>
       </c>
       <c r="S33">
-        <v>0.0004588120420102833</v>
+        <v>0.001064176102024815</v>
       </c>
       <c r="T33">
-        <v>0.0004588120420102833</v>
+        <v>0.001064176102024815</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N34">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q34">
-        <v>92.81718080461687</v>
+        <v>174.4615822007106</v>
       </c>
       <c r="R34">
-        <v>835.3546272415518</v>
+        <v>1570.154239806395</v>
       </c>
       <c r="S34">
-        <v>0.01108836586098404</v>
+        <v>0.02571863749196708</v>
       </c>
       <c r="T34">
-        <v>0.01108836586098404</v>
+        <v>0.02571863749196708</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N35">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O35">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P35">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q35">
-        <v>11.423769784124</v>
+        <v>13.13519743810878</v>
       </c>
       <c r="R35">
-        <v>102.813928057116</v>
+        <v>118.216776942979</v>
       </c>
       <c r="S35">
-        <v>0.001364735901046897</v>
+        <v>0.001936353992866394</v>
       </c>
       <c r="T35">
-        <v>0.001364735901046897</v>
+        <v>0.001936353992866393</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N36">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O36">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P36">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q36">
-        <v>49.981299708536</v>
+        <v>105.8164113896283</v>
       </c>
       <c r="R36">
-        <v>449.831697376824</v>
+        <v>952.3477025066551</v>
       </c>
       <c r="S36">
-        <v>0.005970995160285828</v>
+        <v>0.0155991587999001</v>
       </c>
       <c r="T36">
-        <v>0.005970995160285827</v>
+        <v>0.01559915879990009</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N37">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q37">
-        <v>124.3788530115605</v>
+        <v>535.3851137896756</v>
       </c>
       <c r="R37">
-        <v>1119.409677104044</v>
+        <v>4818.466024107081</v>
       </c>
       <c r="S37">
-        <v>0.01485886789068621</v>
+        <v>0.07892497297376991</v>
       </c>
       <c r="T37">
-        <v>0.01485886789068621</v>
+        <v>0.07892497297376987</v>
       </c>
     </row>
   </sheetData>
